--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H2">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I2">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J2">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N2">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O2">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P2">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q2">
-        <v>0.3118299798731365</v>
+        <v>0.5905872694049999</v>
       </c>
       <c r="R2">
-        <v>0.3118299798731365</v>
+        <v>2.36234907762</v>
       </c>
       <c r="S2">
-        <v>1.898108734487303E-06</v>
+        <v>2.458178875983274E-06</v>
       </c>
       <c r="T2">
-        <v>1.898108734487303E-06</v>
+        <v>1.10217007340966E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H3">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I3">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J3">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N3">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O3">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P3">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q3">
-        <v>666.7838882244351</v>
+        <v>0.240874750075</v>
       </c>
       <c r="R3">
-        <v>666.7838882244351</v>
+        <v>1.44524850045</v>
       </c>
       <c r="S3">
-        <v>0.004058712772803654</v>
+        <v>1.002583789164052E-06</v>
       </c>
       <c r="T3">
-        <v>0.004058712772803654</v>
+        <v>6.742905444952232E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H4">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I4">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J4">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N4">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O4">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P4">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q4">
-        <v>824.0651145174912</v>
+        <v>968.425247683615</v>
       </c>
       <c r="R4">
-        <v>824.0651145174912</v>
+        <v>5810.55148610169</v>
       </c>
       <c r="S4">
-        <v>0.005016083419202628</v>
+        <v>0.004030839488333507</v>
       </c>
       <c r="T4">
-        <v>0.005016083419202628</v>
+        <v>0.002710952423864206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H5">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I5">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J5">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N5">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P5">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q5">
-        <v>0.9393501248116647</v>
+        <v>1264.28149587971</v>
       </c>
       <c r="R5">
-        <v>0.9393501248116647</v>
+        <v>7585.68897527826</v>
       </c>
       <c r="S5">
-        <v>5.717823146357323E-06</v>
+        <v>0.005262270671020541</v>
       </c>
       <c r="T5">
-        <v>5.717823146357323E-06</v>
+        <v>0.003539154925896252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>364.501407023958</v>
+        <v>7.115595</v>
       </c>
       <c r="H6">
-        <v>364.501407023958</v>
+        <v>14.23119</v>
       </c>
       <c r="I6">
-        <v>0.5331433424745153</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J6">
-        <v>0.5331433424745153</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N6">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P6">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q6">
-        <v>18.30461726308148</v>
+        <v>2.30017300851</v>
       </c>
       <c r="R6">
-        <v>18.30461726308148</v>
+        <v>13.80103805106</v>
       </c>
       <c r="S6">
-        <v>0.0001114201845590253</v>
+        <v>9.573922421867748E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001114201845590253</v>
+        <v>6.438968425949587E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>364.501407023958</v>
+        <v>7.115595</v>
       </c>
       <c r="H7">
-        <v>364.501407023958</v>
+        <v>14.23119</v>
       </c>
       <c r="I7">
-        <v>0.5331433424745153</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J7">
-        <v>0.5331433424745153</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N7">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O7">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P7">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q7">
-        <v>39140.63643304312</v>
+        <v>0.199713404865</v>
       </c>
       <c r="R7">
-        <v>39140.63643304312</v>
+        <v>0.79885361946</v>
       </c>
       <c r="S7">
-        <v>0.2382490096596106</v>
+        <v>8.312594912254674E-07</v>
       </c>
       <c r="T7">
-        <v>0.2382490096596106</v>
+        <v>3.727106043493167E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>364.501407023958</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H8">
-        <v>364.501407023958</v>
+        <v>1176.01651</v>
       </c>
       <c r="I8">
-        <v>0.5331433424745153</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J8">
-        <v>0.5331433424745153</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N8">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O8">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P8">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q8">
-        <v>48373.14400378332</v>
+        <v>32.53606477116332</v>
       </c>
       <c r="R8">
-        <v>48373.14400378332</v>
+        <v>195.2163886269799</v>
       </c>
       <c r="S8">
-        <v>0.2944472727912429</v>
+        <v>0.0001354236219969224</v>
       </c>
       <c r="T8">
-        <v>0.2944472727912429</v>
+        <v>9.107953749178193E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>364.501407023958</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H9">
-        <v>364.501407023958</v>
+        <v>1176.01651</v>
       </c>
       <c r="I9">
-        <v>0.5331433424745153</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J9">
-        <v>0.5331433424745153</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.151276362838835</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N9">
-        <v>0.151276362838835</v>
+        <v>0.101555</v>
       </c>
       <c r="O9">
-        <v>0.0006295489643460692</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P9">
-        <v>0.0006295489643460692</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q9">
-        <v>55.14044710422215</v>
+        <v>13.27003963033889</v>
       </c>
       <c r="R9">
-        <v>55.14044710422215</v>
+        <v>119.43035667305</v>
       </c>
       <c r="S9">
-        <v>0.0003356398391028328</v>
+        <v>5.523338004834378E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003356398391028328</v>
+        <v>5.572104742212507E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H10">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I10">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J10">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0502182348554785</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N10">
-        <v>0.0502182348554785</v>
+        <v>408.296951</v>
       </c>
       <c r="O10">
-        <v>0.0002089872941897447</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P10">
-        <v>0.0002089872941897447</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q10">
-        <v>9.260638612075855</v>
+        <v>53351.55059540678</v>
       </c>
       <c r="R10">
-        <v>9.260638612075855</v>
+        <v>480163.955358661</v>
       </c>
       <c r="S10">
-        <v>5.636949674839725E-05</v>
+        <v>0.2220631250766875</v>
       </c>
       <c r="T10">
-        <v>5.636949674839725E-05</v>
+        <v>0.2240237680959093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H11">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I11">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J11">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>107.381304101442</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N11">
-        <v>107.381304101442</v>
+        <v>533.032654</v>
       </c>
       <c r="O11">
-        <v>0.4468760850577424</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P11">
-        <v>0.4468760850577424</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q11">
-        <v>19801.95946429981</v>
+        <v>69650.57794145749</v>
       </c>
       <c r="R11">
-        <v>19801.95946429981</v>
+        <v>626855.2014731175</v>
       </c>
       <c r="S11">
-        <v>0.120534504842807</v>
+        <v>0.2899039452174618</v>
       </c>
       <c r="T11">
-        <v>0.120534504842807</v>
+        <v>0.292463569406481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H12">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I12">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J12">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>132.71044520441</v>
+        <v>0.323258</v>
       </c>
       <c r="N12">
-        <v>132.71044520441</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O12">
-        <v>0.5522853786837219</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P12">
-        <v>0.5522853786837219</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q12">
-        <v>24472.85287152345</v>
+        <v>126.7189149965266</v>
       </c>
       <c r="R12">
-        <v>24472.85287152345</v>
+        <v>1140.47023496874</v>
       </c>
       <c r="S12">
-        <v>0.148966227724992</v>
+        <v>0.0005274373088769882</v>
       </c>
       <c r="T12">
-        <v>0.148966227724992</v>
+        <v>0.0005320941661439014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H13">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I13">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J13">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.151276362838835</v>
+        <v>0.028067</v>
       </c>
       <c r="N13">
-        <v>0.151276362838835</v>
+        <v>0.056134</v>
       </c>
       <c r="O13">
-        <v>0.0006295489643460692</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P13">
-        <v>0.0006295489643460692</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q13">
-        <v>27.89655452509162</v>
+        <v>11.00241846205667</v>
       </c>
       <c r="R13">
-        <v>27.89655452509162</v>
+        <v>66.01451077234</v>
       </c>
       <c r="S13">
-        <v>0.0001698062958145329</v>
+        <v>4.579494691005459E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001698062958145329</v>
+        <v>3.07995202205068E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H14">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I14">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J14">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0502182348554785</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N14">
-        <v>0.0502182348554785</v>
+        <v>0.165998</v>
       </c>
       <c r="O14">
-        <v>0.0002089872941897447</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P14">
-        <v>0.0002089872941897447</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q14">
-        <v>5.545004844046132</v>
+        <v>18.75760980031167</v>
       </c>
       <c r="R14">
-        <v>5.545004844046132</v>
+        <v>112.54565880187</v>
       </c>
       <c r="S14">
-        <v>3.375243820860431E-05</v>
+        <v>7.807408415951307E-05</v>
       </c>
       <c r="T14">
-        <v>3.375243820860431E-05</v>
+        <v>5.250894467661271E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H15">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I15">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J15">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>107.381304101442</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N15">
-        <v>107.381304101442</v>
+        <v>0.101555</v>
       </c>
       <c r="O15">
-        <v>0.4468760850577424</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P15">
-        <v>0.4468760850577424</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q15">
-        <v>11856.84548881608</v>
+        <v>7.650409696786112</v>
       </c>
       <c r="R15">
-        <v>11856.84548881608</v>
+        <v>68.85368727107502</v>
       </c>
       <c r="S15">
-        <v>0.07217260506813437</v>
+        <v>3.184300861785223E-05</v>
       </c>
       <c r="T15">
-        <v>0.07217260506813437</v>
+        <v>3.21241573792058E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H16">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I16">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J16">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.71044520441</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N16">
-        <v>132.71044520441</v>
+        <v>408.296951</v>
       </c>
       <c r="O16">
-        <v>0.5522853786837219</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P16">
-        <v>0.5522853786837219</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q16">
-        <v>14653.64251913152</v>
+        <v>30758.10105951065</v>
       </c>
       <c r="R16">
-        <v>14653.64251913152</v>
+        <v>276822.9095355959</v>
       </c>
       <c r="S16">
-        <v>0.08919670542561002</v>
+        <v>0.1280232714227344</v>
       </c>
       <c r="T16">
-        <v>0.08919670542561002</v>
+        <v>0.1291536163790447</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H17">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I17">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J17">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151276362838835</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N17">
-        <v>0.151276362838835</v>
+        <v>533.032654</v>
       </c>
       <c r="O17">
-        <v>0.0006295489643460692</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P17">
-        <v>0.0006295489643460692</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q17">
-        <v>16.7036568916661</v>
+        <v>40154.77509591095</v>
       </c>
       <c r="R17">
-        <v>16.7036568916661</v>
+        <v>361392.9758631985</v>
       </c>
       <c r="S17">
-        <v>0.000101675140590553</v>
+        <v>0.1671346895270409</v>
       </c>
       <c r="T17">
-        <v>0.000101675140590553</v>
+        <v>0.1686103575929472</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H18">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I18">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J18">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0502182348554785</v>
+        <v>0.323258</v>
       </c>
       <c r="N18">
-        <v>0.0502182348554785</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O18">
-        <v>0.0002089872941897447</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P18">
-        <v>0.0002089872941897447</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q18">
-        <v>0.3461569753683723</v>
+        <v>73.05566848792334</v>
       </c>
       <c r="R18">
-        <v>0.3461569753683723</v>
+        <v>657.50101639131</v>
       </c>
       <c r="S18">
-        <v>2.107057117207659E-06</v>
+        <v>0.0003040768237838513</v>
       </c>
       <c r="T18">
-        <v>2.107057117207659E-06</v>
+        <v>0.0003067615833613502</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H19">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I19">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J19">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>107.381304101442</v>
+        <v>0.028067</v>
       </c>
       <c r="N19">
-        <v>107.381304101442</v>
+        <v>0.056134</v>
       </c>
       <c r="O19">
-        <v>0.4468760850577424</v>
+        <v>8.93157435823062E-05</v>
       </c>
       <c r="P19">
-        <v>0.4468760850577424</v>
+        <v>5.955084489731763E-05</v>
       </c>
       <c r="Q19">
-        <v>740.1850651628677</v>
+        <v>6.343086474118334</v>
       </c>
       <c r="R19">
-        <v>740.1850651628677</v>
+        <v>38.05851884471001</v>
       </c>
       <c r="S19">
-        <v>0.004505505653735656</v>
+        <v>2.64015870083381E-05</v>
       </c>
       <c r="T19">
-        <v>0.004505505653735656</v>
+        <v>1.775646152650621E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.89305341704197</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H20">
-        <v>6.89305341704197</v>
+        <v>358.269844</v>
       </c>
       <c r="I20">
-        <v>0.01008222593328861</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J20">
-        <v>0.01008222593328861</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.71044520441</v>
+        <v>0.08299899999999999</v>
       </c>
       <c r="N20">
-        <v>132.71044520441</v>
+        <v>0.165998</v>
       </c>
       <c r="O20">
-        <v>0.5522853786837219</v>
+        <v>0.0002641221862538864</v>
       </c>
       <c r="P20">
-        <v>0.5522853786837219</v>
+        <v>0.0001761022045687984</v>
       </c>
       <c r="Q20">
-        <v>914.7801877934195</v>
+        <v>9.912012927385332</v>
       </c>
       <c r="R20">
-        <v>914.7801877934195</v>
+        <v>59.47207756431199</v>
       </c>
       <c r="S20">
-        <v>0.005568265967541139</v>
+        <v>4.12563935235504E-05</v>
       </c>
       <c r="T20">
-        <v>0.005568265967541139</v>
+        <v>2.774710338783667E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.89305341704197</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H21">
-        <v>6.89305341704197</v>
+        <v>358.269844</v>
       </c>
       <c r="I21">
-        <v>0.01008222593328861</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J21">
-        <v>0.01008222593328861</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.151276362838835</v>
+        <v>0.03385166666666667</v>
       </c>
       <c r="N21">
-        <v>0.151276362838835</v>
+        <v>0.101555</v>
       </c>
       <c r="O21">
-        <v>0.0006295489643460692</v>
+        <v>0.0001077239027980797</v>
       </c>
       <c r="P21">
-        <v>0.0006295489643460692</v>
+        <v>0.000107736595531177</v>
       </c>
       <c r="Q21">
-        <v>1.042756049783913</v>
+        <v>4.042677111935555</v>
       </c>
       <c r="R21">
-        <v>1.042756049783913</v>
+        <v>36.38409400742</v>
       </c>
       <c r="S21">
-        <v>6.347254894604923E-06</v>
+        <v>1.682668082058885E-05</v>
       </c>
       <c r="T21">
-        <v>6.347254894604923E-06</v>
+        <v>1.697524719907321E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.2536885553074</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H22">
-        <v>11.2536885553074</v>
+        <v>358.269844</v>
       </c>
       <c r="I22">
-        <v>0.01646037303540348</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J22">
-        <v>0.01646037303540348</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0502182348554785</v>
+        <v>136.0989836666667</v>
       </c>
       <c r="N22">
-        <v>0.0502182348554785</v>
+        <v>408.296951</v>
       </c>
       <c r="O22">
-        <v>0.0002089872941897447</v>
+        <v>0.4330987254421377</v>
       </c>
       <c r="P22">
-        <v>0.0002089872941897447</v>
+        <v>0.4331497559598229</v>
       </c>
       <c r="Q22">
-        <v>0.5651403748608376</v>
+        <v>16253.38721560507</v>
       </c>
       <c r="R22">
-        <v>0.5651403748608376</v>
+        <v>146280.4849404457</v>
       </c>
       <c r="S22">
-        <v>3.440008822022807E-06</v>
+        <v>0.0676508539657979</v>
       </c>
       <c r="T22">
-        <v>3.440008822022807E-06</v>
+        <v>0.0682481578834413</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.2536885553074</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H23">
-        <v>11.2536885553074</v>
+        <v>358.269844</v>
       </c>
       <c r="I23">
-        <v>0.01646037303540348</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J23">
-        <v>0.01646037303540348</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>107.381304101442</v>
+        <v>177.6775513333333</v>
       </c>
       <c r="N23">
-        <v>107.381304101442</v>
+        <v>533.032654</v>
       </c>
       <c r="O23">
-        <v>0.4468760850577424</v>
+        <v>0.5654114303352707</v>
       </c>
       <c r="P23">
-        <v>0.4468760850577424</v>
+        <v>0.5654780507991515</v>
       </c>
       <c r="Q23">
-        <v>1208.435753020382</v>
+        <v>21218.83619949844</v>
       </c>
       <c r="R23">
-        <v>1208.435753020382</v>
+        <v>190969.525795486</v>
       </c>
       <c r="S23">
-        <v>0.007355747060651134</v>
+        <v>0.08831835296941924</v>
       </c>
       <c r="T23">
-        <v>0.007355747060651134</v>
+        <v>0.08909813467409834</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,861 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.2536885553074</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H24">
-        <v>11.2536885553074</v>
+        <v>358.269844</v>
       </c>
       <c r="I24">
-        <v>0.01646037303540348</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J24">
-        <v>0.01646037303540348</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>132.71044520441</v>
+        <v>0.323258</v>
       </c>
       <c r="N24">
-        <v>132.71044520441</v>
+        <v>0.9697739999999999</v>
       </c>
       <c r="O24">
-        <v>0.5522853786837219</v>
+        <v>0.001028682389957214</v>
       </c>
       <c r="P24">
-        <v>0.5522853786837219</v>
+        <v>0.001028803596028277</v>
       </c>
       <c r="Q24">
-        <v>1493.482018366619</v>
+        <v>38.60453107725066</v>
       </c>
       <c r="R24">
-        <v>1493.482018366619</v>
+        <v>347.440779695256</v>
       </c>
       <c r="S24">
-        <v>0.009090823355133134</v>
+        <v>0.0001606821679494434</v>
       </c>
       <c r="T24">
-        <v>0.009090823355133134</v>
+        <v>0.000162100865316666</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H25">
+        <v>358.269844</v>
+      </c>
+      <c r="I25">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J25">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.028067</v>
+      </c>
+      <c r="N25">
+        <v>0.056134</v>
+      </c>
+      <c r="O25">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P25">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q25">
+        <v>3.351853237182667</v>
+      </c>
+      <c r="R25">
+        <v>20.111119423096</v>
+      </c>
+      <c r="S25">
+        <v>1.395129094357148E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.382979924895627E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.2536885553074</v>
-      </c>
-      <c r="H25">
-        <v>11.2536885553074</v>
-      </c>
-      <c r="I25">
-        <v>0.01646037303540348</v>
-      </c>
-      <c r="J25">
-        <v>0.01646037303540348</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="N25">
-        <v>0.151276362838835</v>
-      </c>
-      <c r="O25">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="P25">
-        <v>0.0006295489643460692</v>
-      </c>
-      <c r="Q25">
-        <v>1.702417073167927</v>
-      </c>
-      <c r="R25">
-        <v>1.702417073167927</v>
-      </c>
-      <c r="S25">
-        <v>1.036261079718822E-05</v>
-      </c>
-      <c r="T25">
-        <v>1.036261079718822E-05</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H26">
+        <v>21.934745</v>
+      </c>
+      <c r="I26">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J26">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.165998</v>
+      </c>
+      <c r="O26">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P26">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q26">
+        <v>0.6068539667516666</v>
+      </c>
+      <c r="R26">
+        <v>3.64112380051</v>
+      </c>
+      <c r="S26">
+        <v>2.525885130200156E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.698791141631316E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H27">
+        <v>21.934745</v>
+      </c>
+      <c r="I27">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J27">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.101555</v>
+      </c>
+      <c r="O27">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P27">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q27">
+        <v>0.2475092253861111</v>
+      </c>
+      <c r="R27">
+        <v>2.227583028475</v>
+      </c>
+      <c r="S27">
+        <v>1.03019821281974E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.03929405407516E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H28">
+        <v>21.934745</v>
+      </c>
+      <c r="I28">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J28">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N28">
+        <v>408.296951</v>
+      </c>
+      <c r="O28">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P28">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q28">
+        <v>995.0988338291661</v>
+      </c>
+      <c r="R28">
+        <v>8955.889504462495</v>
+      </c>
+      <c r="S28">
+        <v>0.004141861939047306</v>
+      </c>
+      <c r="T28">
+        <v>0.004178431327569463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H29">
+        <v>21.934745</v>
+      </c>
+      <c r="I29">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J29">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N29">
+        <v>533.032654</v>
+      </c>
+      <c r="O29">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P29">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q29">
+        <v>1299.103926907025</v>
+      </c>
+      <c r="R29">
+        <v>11691.93534216323</v>
+      </c>
+      <c r="S29">
+        <v>0.005407210748120358</v>
+      </c>
+      <c r="T29">
+        <v>0.005454952173010702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H30">
+        <v>21.934745</v>
+      </c>
+      <c r="I30">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J30">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.323258</v>
+      </c>
+      <c r="N30">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P30">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q30">
+        <v>2.363527266403333</v>
+      </c>
+      <c r="R30">
+        <v>21.27174539763</v>
+      </c>
+      <c r="S30">
+        <v>9.837619434188871E-06</v>
+      </c>
+      <c r="T30">
+        <v>9.924477888796058E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H31">
+        <v>21.934745</v>
+      </c>
+      <c r="I31">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J31">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.028067</v>
+      </c>
+      <c r="N31">
+        <v>0.056134</v>
+      </c>
+      <c r="O31">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P31">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q31">
+        <v>0.2052141626383333</v>
+      </c>
+      <c r="R31">
+        <v>1.23128497583</v>
+      </c>
+      <c r="S31">
+        <v>8.541550855953421E-07</v>
+      </c>
+      <c r="T31">
+        <v>5.74464402850229E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.69026</v>
+      </c>
+      <c r="H32">
+        <v>25.38052</v>
+      </c>
+      <c r="I32">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J32">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.08299899999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.165998</v>
+      </c>
+      <c r="O32">
+        <v>0.0002641221862538864</v>
+      </c>
+      <c r="P32">
+        <v>0.0001761022045687984</v>
+      </c>
+      <c r="Q32">
+        <v>1.05327888974</v>
+      </c>
+      <c r="R32">
+        <v>4.213115558959999</v>
+      </c>
+      <c r="S32">
+        <v>4.384022567717176E-06</v>
+      </c>
+      <c r="T32">
+        <v>1.965657797526092E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.69026</v>
+      </c>
+      <c r="H33">
+        <v>25.38052</v>
+      </c>
+      <c r="I33">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J33">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.03385166666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.101555</v>
+      </c>
+      <c r="O33">
+        <v>0.0001077239027980797</v>
+      </c>
+      <c r="P33">
+        <v>0.000107736595531177</v>
+      </c>
+      <c r="Q33">
+        <v>0.4295864514333333</v>
+      </c>
+      <c r="R33">
+        <v>2.5775187086</v>
+      </c>
+      <c r="S33">
+        <v>1.788051309311027E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.202558932202571E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.69026</v>
+      </c>
+      <c r="H34">
+        <v>25.38052</v>
+      </c>
+      <c r="I34">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J34">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>136.0989836666667</v>
+      </c>
+      <c r="N34">
+        <v>408.296951</v>
+      </c>
+      <c r="O34">
+        <v>0.4330987254421377</v>
+      </c>
+      <c r="P34">
+        <v>0.4331497559598229</v>
+      </c>
+      <c r="Q34">
+        <v>1727.131488465753</v>
+      </c>
+      <c r="R34">
+        <v>10362.78893079452</v>
+      </c>
+      <c r="S34">
+        <v>0.007188773549537201</v>
+      </c>
+      <c r="T34">
+        <v>0.004834829849993848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.69026</v>
+      </c>
+      <c r="H35">
+        <v>25.38052</v>
+      </c>
+      <c r="I35">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J35">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>177.6775513333333</v>
+      </c>
+      <c r="N35">
+        <v>533.032654</v>
+      </c>
+      <c r="O35">
+        <v>0.5654114303352707</v>
+      </c>
+      <c r="P35">
+        <v>0.5654780507991515</v>
+      </c>
+      <c r="Q35">
+        <v>2254.774322583346</v>
+      </c>
+      <c r="R35">
+        <v>13528.64593550008</v>
+      </c>
+      <c r="S35">
+        <v>0.009384961202207984</v>
+      </c>
+      <c r="T35">
+        <v>0.006311882026717956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.69026</v>
+      </c>
+      <c r="H36">
+        <v>25.38052</v>
+      </c>
+      <c r="I36">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J36">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.323258</v>
+      </c>
+      <c r="N36">
+        <v>0.9697739999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.001028682389957214</v>
+      </c>
+      <c r="P36">
+        <v>0.001028803596028277</v>
+      </c>
+      <c r="Q36">
+        <v>4.10222806708</v>
+      </c>
+      <c r="R36">
+        <v>24.61336840248</v>
+      </c>
+      <c r="S36">
+        <v>1.707454749087482E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.148353489161356E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.69026</v>
+      </c>
+      <c r="H37">
+        <v>25.38052</v>
+      </c>
+      <c r="I37">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J37">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.028067</v>
+      </c>
+      <c r="N37">
+        <v>0.056134</v>
+      </c>
+      <c r="O37">
+        <v>8.93157435823062E-05</v>
+      </c>
+      <c r="P37">
+        <v>5.955084489731763E-05</v>
+      </c>
+      <c r="Q37">
+        <v>0.35617752742</v>
+      </c>
+      <c r="R37">
+        <v>1.42471010968</v>
+      </c>
+      <c r="S37">
+        <v>1.482504143521223E-06</v>
+      </c>
+      <c r="T37">
+        <v>6.647082182094341E-07</v>
       </c>
     </row>
   </sheetData>
